--- a/inventory_bom.xlsx
+++ b/inventory_bom.xlsx
@@ -1,56 +1,57 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://muellerone-my.sharepoint.com/personal/massa_muellerwp_com/Documents/Documents/Cover Systems/Inventory managment/Sets calcs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://muellerone-my.sharepoint.com/personal/massa_muellerwp_com/Documents/Documents/Cover Systems/Inventory managment/Sets calcs/Calc files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="234" documentId="8_{B3EE0665-797F-47D7-A473-964286153950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E64B272-C761-4048-99E5-E8D957B1479C}"/>
+  <xr:revisionPtr revIDLastSave="259" documentId="8_{B3EE0665-797F-47D7-A473-964286153950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62804514-D985-4182-8636-E8959ABEEF29}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{51681456-E6B8-42DF-B381-24AEC35843D2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{51681456-E6B8-42DF-B381-24AEC35843D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Dec 8 Inventory" sheetId="1" r:id="rId1"/>
-    <sheet name="Bill of Material" sheetId="2" r:id="rId2"/>
-    <sheet name="HYMAX GRIP FG" sheetId="3" r:id="rId3"/>
-    <sheet name="Plan" sheetId="4" r:id="rId4"/>
+    <sheet name="FG Weights" sheetId="5" r:id="rId2"/>
+    <sheet name="Bill of Material" sheetId="2" r:id="rId3"/>
+    <sheet name="HYMAX GRIP FG" sheetId="3" r:id="rId4"/>
+    <sheet name="Plan" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Bill of Material'!$B$1:$F$1451</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'HYMAX GRIP FG'!$B$1:$H$60</definedName>
-    <definedName name="solver_adj" localSheetId="3" hidden="1">Plan!$A$2:$A$60</definedName>
-    <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
-    <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="3" hidden="1">Plan!$G$2:$G$210</definedName>
-    <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
-    <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
-    <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
-    <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="3" hidden="1">Plan!$J$2</definedName>
-    <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
-    <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="3" hidden="1">3</definedName>
-    <definedName name="solver_rhs1" localSheetId="3" hidden="1">0</definedName>
-    <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
-    <definedName name="solver_scl" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
-    <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
-    <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
-    <definedName name="solver_typ" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
-    <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Bill of Material'!$B$1:$F$1451</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'HYMAX GRIP FG'!$B$1:$H$60</definedName>
+    <definedName name="solver_adj" localSheetId="4" hidden="1">Plan!$A$2:$A$60</definedName>
+    <definedName name="solver_cvg" localSheetId="4" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="4" hidden="1">Plan!$G$2:$G$210</definedName>
+    <definedName name="solver_mip" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="4" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="4" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="4" hidden="1">Plan!$J$2</definedName>
+    <definedName name="solver_pre" localSheetId="4" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="4" hidden="1">3</definedName>
+    <definedName name="solver_rhs1" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rlx" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="4" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="4" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="4" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -73,7 +74,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -95,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7432" uniqueCount="935">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7604" uniqueCount="936">
   <si>
     <t>WH</t>
   </si>
@@ -2900,6 +2901,9 @@
   </si>
   <si>
     <t>Total FG units</t>
+  </si>
+  <si>
+    <t>Weight</t>
   </si>
 </sst>
 </file>
@@ -2910,9 +2914,9 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Aptos Narrow"/>
@@ -2933,6 +2937,19 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
@@ -2969,7 +2986,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -3316,13 +3333,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="dashed">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -3336,7 +3368,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3345,7 +3377,7 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3379,7 +3411,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3387,8 +3419,8 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="5" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="2" fillId="5" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="5" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="5" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3401,9 +3433,13 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma 2" xfId="2" xr:uid="{7C7A4252-1B28-468D-88FF-0ED218C96BBC}"/>
@@ -3412,39 +3448,11 @@
   </cellStyles>
   <dxfs count="33">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF0070C0"/>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -3463,7 +3471,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -3502,7 +3510,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -3770,13 +3778,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="dashed">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="medium">
           <color theme="0" tint="-0.34998626667073579"/>
         </left>
@@ -3792,11 +3793,11 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
+      <border outline="0">
+        <bottom style="dashed">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -3810,17 +3811,24 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color auto="1"/>
+        <color theme="0"/>
         <name val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
+          <color theme="0" tint="-0.34998626667073579"/>
         </left>
         <right style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
+          <color theme="0" tint="-0.34998626667073579"/>
         </right>
         <top/>
         <bottom/>
@@ -3926,13 +3934,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="dashed">
-          <color theme="0" tint="-0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="medium">
           <color theme="0" tint="-0.499984740745262"/>
         </left>
@@ -3942,6 +3943,13 @@
         <top style="medium">
           <color theme="0" tint="-0.499984740745262"/>
         </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="dashed">
+          <color theme="0" tint="-0.499984740745262"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -3961,17 +3969,11 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
       <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="dashed">
+        <left style="thin">
           <color theme="0" tint="-0.499984740745262"/>
         </left>
-        <right style="dashed">
+        <right style="thin">
           <color theme="0" tint="-0.499984740745262"/>
         </right>
         <top/>
@@ -4092,13 +4094,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="medium">
           <color theme="0" tint="-0.499984740745262"/>
         </left>
@@ -4111,6 +4106,47 @@
         <bottom style="medium">
           <color theme="0" tint="-0.499984740745262"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="dashed">
+          <color theme="0" tint="-0.499984740745262"/>
+        </left>
+        <right style="dashed">
+          <color theme="0" tint="-0.499984740745262"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -4127,38 +4163,60 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{56D3D9C1-BEE8-4723-9DF3-74E730E677CE}" name="tblInventory" displayName="tblInventory" ref="B1:G422" totalsRowShown="0" headerRowDxfId="23" headerRowBorderDxfId="31" tableBorderDxfId="32" totalsRowBorderDxfId="30">
-  <autoFilter ref="B1:G422" xr:uid="{56D3D9C1-BEE8-4723-9DF3-74E730E677CE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{56D3D9C1-BEE8-4723-9DF3-74E730E677CE}" name="tblInventory" displayName="tblInventory" ref="B1:G422" totalsRowShown="0" headerRowDxfId="32" headerRowBorderDxfId="31" tableBorderDxfId="30" totalsRowBorderDxfId="29">
+  <autoFilter ref="B1:G422" xr:uid="{56D3D9C1-BEE8-4723-9DF3-74E730E677CE}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="‎3/4&quot; ‎בורג‎ ‎עבור‎ PVC ‎כובעון"/>
+        <filter val="‎M-14 ‎בורג‎ ‎עבור‎ PVC ‎כובעון"/>
+        <filter val="‎M-16 ‎בורג‎ ‎עבור‎ PVC ‎כובעון"/>
+        <filter val="‎ST A4 SS316 DIN7991 M4X16 ‎אלן‎ ‎קוני‎ ‎ראש‎ ‎בורג"/>
+        <filter val="‎ST A4 SS316 DIN7991 M4X20 ‎אלן‎ ‎קוני‎ ‎ראש‎ ‎בורג"/>
+        <filter val="‎ST A4 SS316 DIN965 M5X16 ‎פיליפס‎ ‎קוני‎ ‎ראש‎ ‎בורג"/>
+        <filter val="‎אבץ‎ ‎ציפוי‎ + 3/4&quot;-10 UNC X 6.0&quot;(150mm) ‎סגר‎ ‎בורג"/>
+        <filter val="‎אבץ‎ ‎ציפוי‎ + 3/4&quot;-10 UNC X 9.5&quot;(241mm) ‎סגר‎ ‎בורג"/>
+        <filter val="‎אבץ‎ ‎ציפוי‎ SS316 M14X155 ‎סגר‎ ‎בורג"/>
+        <filter val="‎אבץ‎ ‎ציפוי‎ SS316 M16X160 ‎סגר‎ ‎בורג"/>
+        <filter val="‎אבץ‎ ‎ציפוי‎ SS316 M16X180 ‎סגר‎ ‎בורג"/>
+        <filter val="‎אבץ‎ ‎ציפוי‎ SS316 M16X225 ‎סגר‎ ‎בורג"/>
+        <filter val="‎אבץ‎ ‎ציפוי‎+5/8&quot;-11 UNC X 4.5&quot;(115mm) ‎סגר‎ ‎בורג"/>
+        <filter val="‎אבץ‎ ‎ציפוי‎+5/8&quot;-11 UNC X 7.5&quot;(190mm) ‎סגר‎ ‎בורג"/>
+        <filter val="‎אבץ‎.‎צ‎ NS SS316 M12X45 ‎סגר‎ ‎בורג"/>
+        <filter val="‎אבץ‎.‎צ‎ NS SS316 M14X50 ‎סגר‎ ‎בורג"/>
+        <filter val="‎אבץ‎.‎צ‎ NS SS316 M16X50 ‎סגר‎ ‎בורג"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{10BC9AA2-40C1-491F-B6DE-2FECD22BFB9C}" name="WH" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{52627302-5102-4564-9ADD-B3943D46A284}" name="SKU" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{B1C74082-A0D7-4E7E-BF9F-826C847FE3DA}" name="Desc" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{AB068AFA-D688-40DC-947C-B71727E21FAB}" name="Qty on Stock" dataDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{6C58A1CA-E232-4FF4-AF8E-67DE83F5160E}" name="Status" dataDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{5E192A28-2AA9-4A50-9295-C26024D2C6E2}" name="Item family" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{10BC9AA2-40C1-491F-B6DE-2FECD22BFB9C}" name="WH" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{52627302-5102-4564-9ADD-B3943D46A284}" name="SKU" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{B1C74082-A0D7-4E7E-BF9F-826C847FE3DA}" name="Desc" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{AB068AFA-D688-40DC-947C-B71727E21FAB}" name="Qty on Stock" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{6C58A1CA-E232-4FF4-AF8E-67DE83F5160E}" name="Status" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{5E192A28-2AA9-4A50-9295-C26024D2C6E2}" name="Item family" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E630615F-3B6D-485D-A9AC-F1FBB22F11E8}" name="tblBOM" displayName="tblBOM" ref="B1:F1451" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="21" tableBorderDxfId="22" totalsRowBorderDxfId="20" headerRowCellStyle="Normal 4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E630615F-3B6D-485D-A9AC-F1FBB22F11E8}" name="tblBOM" displayName="tblBOM" ref="B1:F1451" totalsRowShown="0" headerRowDxfId="22" headerRowBorderDxfId="21" tableBorderDxfId="20" totalsRowBorderDxfId="19" headerRowCellStyle="Normal 4">
   <autoFilter ref="B1:F1451" xr:uid="{E50254EA-F55B-42CC-A488-19AC70D3BA39}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{3846B819-0BCE-4A74-BE0B-61FF0EE5269F}" name="FG" dataDxfId="19">
+    <tableColumn id="1" xr3:uid="{3846B819-0BCE-4A74-BE0B-61FF0EE5269F}" name="FG" dataDxfId="18">
       <calculatedColumnFormula>"8638270266031216"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{3E9F4546-7F15-47D7-AF63-C3E7AEBA7E54}" name="FG Description" dataDxfId="18" dataCellStyle="Normal 4"/>
-    <tableColumn id="3" xr3:uid="{70AE81AC-D6E3-46BD-B8E2-85CD83EB4EB7}" name="SKU" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{2B441159-FD2B-4439-B032-E8D0E795A3E7}" name="Desc" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{0337CF17-DFD3-4DA6-A4E9-6BD1DCEB4C8C}" name="Units in FG" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{3E9F4546-7F15-47D7-AF63-C3E7AEBA7E54}" name="FG Description" dataDxfId="17" dataCellStyle="Normal 4"/>
+    <tableColumn id="3" xr3:uid="{70AE81AC-D6E3-46BD-B8E2-85CD83EB4EB7}" name="SKU" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{2B441159-FD2B-4439-B032-E8D0E795A3E7}" name="Desc" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{0337CF17-DFD3-4DA6-A4E9-6BD1DCEB4C8C}" name="Units in FG" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F396BD88-89C8-4019-B68B-222C8B69325C}" name="tblFG" displayName="tblFG" ref="B1:J60" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="11" tableBorderDxfId="12" totalsRowBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F396BD88-89C8-4019-B68B-222C8B69325C}" name="tblFG" displayName="tblFG" ref="B1:J60" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
   <autoFilter ref="B1:J60" xr:uid="{F396BD88-89C8-4019-B68B-222C8B69325C}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{D0973E65-F161-45F2-A7D9-50ACDDF8A5CF}" name="#" dataDxfId="9"/>
@@ -4497,7 +4555,7 @@
   <dimension ref="B1:G422"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E175" sqref="E175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4529,7 +4587,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B2" s="20" t="s">
         <v>5</v>
       </c>
@@ -4547,7 +4605,7 @@
       </c>
       <c r="G2" s="21"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B3" s="20" t="s">
         <v>5</v>
       </c>
@@ -4565,7 +4623,7 @@
       </c>
       <c r="G3" s="21"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B4" s="20" t="s">
         <v>5</v>
       </c>
@@ -4583,7 +4641,7 @@
       </c>
       <c r="G4" s="21"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B5" s="20" t="s">
         <v>5</v>
       </c>
@@ -4601,7 +4659,7 @@
       </c>
       <c r="G5" s="21"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B6" s="20" t="s">
         <v>5</v>
       </c>
@@ -4619,7 +4677,7 @@
       </c>
       <c r="G6" s="21"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B7" s="20" t="s">
         <v>5</v>
       </c>
@@ -4637,7 +4695,7 @@
       </c>
       <c r="G7" s="21"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B8" s="20" t="s">
         <v>5</v>
       </c>
@@ -4655,7 +4713,7 @@
       </c>
       <c r="G8" s="21"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B9" s="20" t="s">
         <v>5</v>
       </c>
@@ -4673,7 +4731,7 @@
       </c>
       <c r="G9" s="21"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B10" s="20" t="s">
         <v>5</v>
       </c>
@@ -4691,7 +4749,7 @@
       </c>
       <c r="G10" s="21"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B11" s="20" t="s">
         <v>5</v>
       </c>
@@ -4709,7 +4767,7 @@
       </c>
       <c r="G11" s="21"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B12" s="20" t="s">
         <v>5</v>
       </c>
@@ -4727,7 +4785,7 @@
       </c>
       <c r="G12" s="21"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B13" s="20" t="s">
         <v>5</v>
       </c>
@@ -4745,7 +4803,7 @@
       </c>
       <c r="G13" s="21"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B14" s="20" t="s">
         <v>5</v>
       </c>
@@ -4763,7 +4821,7 @@
       </c>
       <c r="G14" s="21"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B15" s="20" t="s">
         <v>5</v>
       </c>
@@ -4781,7 +4839,7 @@
       </c>
       <c r="G15" s="21"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B16" s="20" t="s">
         <v>5</v>
       </c>
@@ -4799,7 +4857,7 @@
       </c>
       <c r="G16" s="21"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B17" s="20" t="s">
         <v>5</v>
       </c>
@@ -4817,7 +4875,7 @@
       </c>
       <c r="G17" s="21"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B18" s="20" t="s">
         <v>5</v>
       </c>
@@ -4835,7 +4893,7 @@
       </c>
       <c r="G18" s="21"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B19" s="20" t="s">
         <v>5</v>
       </c>
@@ -4853,7 +4911,7 @@
       </c>
       <c r="G19" s="21"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B20" s="20" t="s">
         <v>5</v>
       </c>
@@ -4871,7 +4929,7 @@
       </c>
       <c r="G20" s="21"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B21" s="20" t="s">
         <v>5</v>
       </c>
@@ -4889,7 +4947,7 @@
       </c>
       <c r="G21" s="21"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B22" s="20" t="s">
         <v>5</v>
       </c>
@@ -4907,7 +4965,7 @@
       </c>
       <c r="G22" s="21"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B23" s="20" t="s">
         <v>5</v>
       </c>
@@ -4925,7 +4983,7 @@
       </c>
       <c r="G23" s="21"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B24" s="20" t="s">
         <v>5</v>
       </c>
@@ -4943,7 +5001,7 @@
       </c>
       <c r="G24" s="21"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B25" s="20" t="s">
         <v>5</v>
       </c>
@@ -4961,7 +5019,7 @@
       </c>
       <c r="G25" s="21"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B26" s="20" t="s">
         <v>5</v>
       </c>
@@ -4979,7 +5037,7 @@
       </c>
       <c r="G26" s="21"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B27" s="20" t="s">
         <v>5</v>
       </c>
@@ -4997,7 +5055,7 @@
       </c>
       <c r="G27" s="21"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B28" s="20" t="s">
         <v>5</v>
       </c>
@@ -5015,7 +5073,7 @@
       </c>
       <c r="G28" s="21"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B29" s="20" t="s">
         <v>5</v>
       </c>
@@ -5033,7 +5091,7 @@
       </c>
       <c r="G29" s="21"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B30" s="20" t="s">
         <v>5</v>
       </c>
@@ -5051,7 +5109,7 @@
       </c>
       <c r="G30" s="21"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B31" s="20" t="s">
         <v>5</v>
       </c>
@@ -5069,7 +5127,7 @@
       </c>
       <c r="G31" s="21"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B32" s="20" t="s">
         <v>5</v>
       </c>
@@ -5087,7 +5145,7 @@
       </c>
       <c r="G32" s="21"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B33" s="20" t="s">
         <v>5</v>
       </c>
@@ -5105,7 +5163,7 @@
       </c>
       <c r="G33" s="21"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B34" s="20" t="s">
         <v>5</v>
       </c>
@@ -5123,7 +5181,7 @@
       </c>
       <c r="G34" s="21"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B35" s="20" t="s">
         <v>5</v>
       </c>
@@ -5141,7 +5199,7 @@
       </c>
       <c r="G35" s="21"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B36" s="20" t="s">
         <v>5</v>
       </c>
@@ -5159,7 +5217,7 @@
       </c>
       <c r="G36" s="21"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B37" s="20" t="s">
         <v>5</v>
       </c>
@@ -5177,7 +5235,7 @@
       </c>
       <c r="G37" s="21"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B38" s="20" t="s">
         <v>5</v>
       </c>
@@ -5195,7 +5253,7 @@
       </c>
       <c r="G38" s="21"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B39" s="20" t="s">
         <v>5</v>
       </c>
@@ -5213,7 +5271,7 @@
       </c>
       <c r="G39" s="21"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B40" s="20" t="s">
         <v>5</v>
       </c>
@@ -5231,7 +5289,7 @@
       </c>
       <c r="G40" s="21"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B41" s="20" t="s">
         <v>5</v>
       </c>
@@ -5249,7 +5307,7 @@
       </c>
       <c r="G41" s="21"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B42" s="20" t="s">
         <v>5</v>
       </c>
@@ -5267,7 +5325,7 @@
       </c>
       <c r="G42" s="21"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B43" s="20" t="s">
         <v>5</v>
       </c>
@@ -5285,7 +5343,7 @@
       </c>
       <c r="G43" s="21"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B44" s="20" t="s">
         <v>5</v>
       </c>
@@ -5303,7 +5361,7 @@
       </c>
       <c r="G44" s="21"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B45" s="20" t="s">
         <v>5</v>
       </c>
@@ -5321,7 +5379,7 @@
       </c>
       <c r="G45" s="21"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B46" s="20" t="s">
         <v>5</v>
       </c>
@@ -5339,7 +5397,7 @@
       </c>
       <c r="G46" s="21"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B47" s="20" t="s">
         <v>5</v>
       </c>
@@ -5357,7 +5415,7 @@
       </c>
       <c r="G47" s="21"/>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B48" s="20" t="s">
         <v>5</v>
       </c>
@@ -5375,7 +5433,7 @@
       </c>
       <c r="G48" s="21"/>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B49" s="20" t="s">
         <v>5</v>
       </c>
@@ -5393,7 +5451,7 @@
       </c>
       <c r="G49" s="21"/>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B50" s="20" t="s">
         <v>5</v>
       </c>
@@ -5411,7 +5469,7 @@
       </c>
       <c r="G50" s="21"/>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B51" s="20" t="s">
         <v>5</v>
       </c>
@@ -5429,7 +5487,7 @@
       </c>
       <c r="G51" s="21"/>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B52" s="20" t="s">
         <v>5</v>
       </c>
@@ -5447,7 +5505,7 @@
       </c>
       <c r="G52" s="21"/>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B53" s="20" t="s">
         <v>5</v>
       </c>
@@ -5465,7 +5523,7 @@
       </c>
       <c r="G53" s="21"/>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B54" s="20" t="s">
         <v>5</v>
       </c>
@@ -5483,7 +5541,7 @@
       </c>
       <c r="G54" s="21"/>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B55" s="20" t="s">
         <v>5</v>
       </c>
@@ -5501,7 +5559,7 @@
       </c>
       <c r="G55" s="21"/>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B56" s="20" t="s">
         <v>5</v>
       </c>
@@ -5519,7 +5577,7 @@
       </c>
       <c r="G56" s="21"/>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B57" s="20" t="s">
         <v>5</v>
       </c>
@@ -5537,7 +5595,7 @@
       </c>
       <c r="G57" s="21"/>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B58" s="20" t="s">
         <v>5</v>
       </c>
@@ -5555,7 +5613,7 @@
       </c>
       <c r="G58" s="21"/>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B59" s="20" t="s">
         <v>5</v>
       </c>
@@ -5573,7 +5631,7 @@
       </c>
       <c r="G59" s="21"/>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B60" s="20" t="s">
         <v>5</v>
       </c>
@@ -5591,7 +5649,7 @@
       </c>
       <c r="G60" s="21"/>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B61" s="20" t="s">
         <v>5</v>
       </c>
@@ -5609,7 +5667,7 @@
       </c>
       <c r="G61" s="21"/>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B62" s="20" t="s">
         <v>5</v>
       </c>
@@ -5627,7 +5685,7 @@
       </c>
       <c r="G62" s="21"/>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B63" s="20" t="s">
         <v>5</v>
       </c>
@@ -5645,7 +5703,7 @@
       </c>
       <c r="G63" s="21"/>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B64" s="20" t="s">
         <v>5</v>
       </c>
@@ -5663,7 +5721,7 @@
       </c>
       <c r="G64" s="21"/>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B65" s="20" t="s">
         <v>5</v>
       </c>
@@ -5681,7 +5739,7 @@
       </c>
       <c r="G65" s="21"/>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B66" s="20" t="s">
         <v>5</v>
       </c>
@@ -5699,7 +5757,7 @@
       </c>
       <c r="G66" s="21"/>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B67" s="20" t="s">
         <v>5</v>
       </c>
@@ -5717,7 +5775,7 @@
       </c>
       <c r="G67" s="21"/>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B68" s="20" t="s">
         <v>5</v>
       </c>
@@ -5735,7 +5793,7 @@
       </c>
       <c r="G68" s="21"/>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B69" s="20" t="s">
         <v>5</v>
       </c>
@@ -5753,7 +5811,7 @@
       </c>
       <c r="G69" s="21"/>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B70" s="20" t="s">
         <v>5</v>
       </c>
@@ -5771,7 +5829,7 @@
       </c>
       <c r="G70" s="21"/>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B71" s="20" t="s">
         <v>5</v>
       </c>
@@ -5789,7 +5847,7 @@
       </c>
       <c r="G71" s="21"/>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B72" s="20" t="s">
         <v>5</v>
       </c>
@@ -5807,7 +5865,7 @@
       </c>
       <c r="G72" s="21"/>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B73" s="20" t="s">
         <v>5</v>
       </c>
@@ -5825,7 +5883,7 @@
       </c>
       <c r="G73" s="21"/>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B74" s="20" t="s">
         <v>5</v>
       </c>
@@ -5843,7 +5901,7 @@
       </c>
       <c r="G74" s="21"/>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B75" s="20" t="s">
         <v>5</v>
       </c>
@@ -5861,7 +5919,7 @@
       </c>
       <c r="G75" s="21"/>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B76" s="20" t="s">
         <v>5</v>
       </c>
@@ -5879,7 +5937,7 @@
       </c>
       <c r="G76" s="21"/>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B77" s="20" t="s">
         <v>5</v>
       </c>
@@ -5897,7 +5955,7 @@
       </c>
       <c r="G77" s="21"/>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B78" s="20" t="s">
         <v>5</v>
       </c>
@@ -5915,7 +5973,7 @@
       </c>
       <c r="G78" s="21"/>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B79" s="20" t="s">
         <v>5</v>
       </c>
@@ -5933,7 +5991,7 @@
       </c>
       <c r="G79" s="21"/>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B80" s="20" t="s">
         <v>5</v>
       </c>
@@ -5951,7 +6009,7 @@
       </c>
       <c r="G80" s="21"/>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B81" s="20" t="s">
         <v>5</v>
       </c>
@@ -5969,7 +6027,7 @@
       </c>
       <c r="G81" s="21"/>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B82" s="20" t="s">
         <v>5</v>
       </c>
@@ -5987,7 +6045,7 @@
       </c>
       <c r="G82" s="21"/>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B83" s="20" t="s">
         <v>5</v>
       </c>
@@ -6005,7 +6063,7 @@
       </c>
       <c r="G83" s="21"/>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B84" s="20" t="s">
         <v>5</v>
       </c>
@@ -6023,7 +6081,7 @@
       </c>
       <c r="G84" s="21"/>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B85" s="20" t="s">
         <v>5</v>
       </c>
@@ -6041,7 +6099,7 @@
       </c>
       <c r="G85" s="21"/>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B86" s="20" t="s">
         <v>5</v>
       </c>
@@ -6059,7 +6117,7 @@
       </c>
       <c r="G86" s="21"/>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B87" s="20" t="s">
         <v>5</v>
       </c>
@@ -6077,7 +6135,7 @@
       </c>
       <c r="G87" s="21"/>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B88" s="20" t="s">
         <v>5</v>
       </c>
@@ -6095,7 +6153,7 @@
       </c>
       <c r="G88" s="21"/>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B89" s="20" t="s">
         <v>5</v>
       </c>
@@ -6113,7 +6171,7 @@
       </c>
       <c r="G89" s="21"/>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B90" s="20" t="s">
         <v>5</v>
       </c>
@@ -6131,7 +6189,7 @@
       </c>
       <c r="G90" s="21"/>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B91" s="20" t="s">
         <v>5</v>
       </c>
@@ -6149,7 +6207,7 @@
       </c>
       <c r="G91" s="21"/>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B92" s="20" t="s">
         <v>5</v>
       </c>
@@ -6167,7 +6225,7 @@
       </c>
       <c r="G92" s="21"/>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B93" s="20" t="s">
         <v>5</v>
       </c>
@@ -6185,7 +6243,7 @@
       </c>
       <c r="G93" s="21"/>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B94" s="20" t="s">
         <v>5</v>
       </c>
@@ -6203,7 +6261,7 @@
       </c>
       <c r="G94" s="21"/>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B95" s="20" t="s">
         <v>5</v>
       </c>
@@ -6221,7 +6279,7 @@
       </c>
       <c r="G95" s="21"/>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B96" s="20" t="s">
         <v>5</v>
       </c>
@@ -6239,7 +6297,7 @@
       </c>
       <c r="G96" s="21"/>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B97" s="20" t="s">
         <v>5</v>
       </c>
@@ -6257,7 +6315,7 @@
       </c>
       <c r="G97" s="21"/>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B98" s="20" t="s">
         <v>5</v>
       </c>
@@ -6275,7 +6333,7 @@
       </c>
       <c r="G98" s="21"/>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B99" s="20" t="s">
         <v>5</v>
       </c>
@@ -6293,7 +6351,7 @@
       </c>
       <c r="G99" s="21"/>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B100" s="20" t="s">
         <v>5</v>
       </c>
@@ -6311,7 +6369,7 @@
       </c>
       <c r="G100" s="21"/>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B101" s="20" t="s">
         <v>5</v>
       </c>
@@ -6329,7 +6387,7 @@
       </c>
       <c r="G101" s="21"/>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B102" s="20" t="s">
         <v>5</v>
       </c>
@@ -6347,7 +6405,7 @@
       </c>
       <c r="G102" s="21"/>
     </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B103" s="20" t="s">
         <v>5</v>
       </c>
@@ -6365,7 +6423,7 @@
       </c>
       <c r="G103" s="21"/>
     </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B104" s="20" t="s">
         <v>5</v>
       </c>
@@ -6383,7 +6441,7 @@
       </c>
       <c r="G104" s="21"/>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B105" s="20" t="s">
         <v>5</v>
       </c>
@@ -6401,7 +6459,7 @@
       </c>
       <c r="G105" s="21"/>
     </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B106" s="20" t="s">
         <v>5</v>
       </c>
@@ -6419,7 +6477,7 @@
       </c>
       <c r="G106" s="21"/>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B107" s="20" t="s">
         <v>5</v>
       </c>
@@ -6437,7 +6495,7 @@
       </c>
       <c r="G107" s="21"/>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B108" s="20" t="s">
         <v>5</v>
       </c>
@@ -6455,7 +6513,7 @@
       </c>
       <c r="G108" s="21"/>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B109" s="20" t="s">
         <v>5</v>
       </c>
@@ -6473,7 +6531,7 @@
       </c>
       <c r="G109" s="21"/>
     </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B110" s="20" t="s">
         <v>5</v>
       </c>
@@ -6491,7 +6549,7 @@
       </c>
       <c r="G110" s="21"/>
     </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B111" s="20" t="s">
         <v>5</v>
       </c>
@@ -6509,7 +6567,7 @@
       </c>
       <c r="G111" s="21"/>
     </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B112" s="20" t="s">
         <v>5</v>
       </c>
@@ -6527,7 +6585,7 @@
       </c>
       <c r="G112" s="21"/>
     </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B113" s="20" t="s">
         <v>5</v>
       </c>
@@ -6545,7 +6603,7 @@
       </c>
       <c r="G113" s="21"/>
     </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B114" s="20" t="s">
         <v>5</v>
       </c>
@@ -6563,7 +6621,7 @@
       </c>
       <c r="G114" s="21"/>
     </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B115" s="20" t="s">
         <v>5</v>
       </c>
@@ -6581,7 +6639,7 @@
       </c>
       <c r="G115" s="21"/>
     </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B116" s="20" t="s">
         <v>5</v>
       </c>
@@ -6599,7 +6657,7 @@
       </c>
       <c r="G116" s="21"/>
     </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B117" s="20" t="s">
         <v>5</v>
       </c>
@@ -6617,7 +6675,7 @@
       </c>
       <c r="G117" s="21"/>
     </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B118" s="20" t="s">
         <v>5</v>
       </c>
@@ -6635,7 +6693,7 @@
       </c>
       <c r="G118" s="21"/>
     </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B119" s="20" t="s">
         <v>5</v>
       </c>
@@ -6653,7 +6711,7 @@
       </c>
       <c r="G119" s="21"/>
     </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B120" s="20" t="s">
         <v>5</v>
       </c>
@@ -6671,7 +6729,7 @@
       </c>
       <c r="G120" s="21"/>
     </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B121" s="20" t="s">
         <v>5</v>
       </c>
@@ -6689,7 +6747,7 @@
       </c>
       <c r="G121" s="21"/>
     </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B122" s="20" t="s">
         <v>5</v>
       </c>
@@ -6707,7 +6765,7 @@
       </c>
       <c r="G122" s="21"/>
     </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B123" s="20" t="s">
         <v>5</v>
       </c>
@@ -6725,7 +6783,7 @@
       </c>
       <c r="G123" s="21"/>
     </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B124" s="20" t="s">
         <v>5</v>
       </c>
@@ -6743,7 +6801,7 @@
       </c>
       <c r="G124" s="21"/>
     </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B125" s="20" t="s">
         <v>5</v>
       </c>
@@ -6761,7 +6819,7 @@
       </c>
       <c r="G125" s="21"/>
     </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B126" s="20" t="s">
         <v>5</v>
       </c>
@@ -6779,7 +6837,7 @@
       </c>
       <c r="G126" s="21"/>
     </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B127" s="20" t="s">
         <v>5</v>
       </c>
@@ -6797,7 +6855,7 @@
       </c>
       <c r="G127" s="21"/>
     </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B128" s="20" t="s">
         <v>5</v>
       </c>
@@ -6815,7 +6873,7 @@
       </c>
       <c r="G128" s="21"/>
     </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B129" s="20" t="s">
         <v>5</v>
       </c>
@@ -6833,7 +6891,7 @@
       </c>
       <c r="G129" s="21"/>
     </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B130" s="20" t="s">
         <v>5</v>
       </c>
@@ -6851,7 +6909,7 @@
       </c>
       <c r="G130" s="21"/>
     </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B131" s="20" t="s">
         <v>5</v>
       </c>
@@ -6869,7 +6927,7 @@
       </c>
       <c r="G131" s="21"/>
     </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B132" s="20" t="s">
         <v>5</v>
       </c>
@@ -6887,7 +6945,7 @@
       </c>
       <c r="G132" s="21"/>
     </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B133" s="20" t="s">
         <v>5</v>
       </c>
@@ -6905,7 +6963,7 @@
       </c>
       <c r="G133" s="21"/>
     </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B134" s="20" t="s">
         <v>5</v>
       </c>
@@ -6923,7 +6981,7 @@
       </c>
       <c r="G134" s="21"/>
     </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B135" s="20" t="s">
         <v>5</v>
       </c>
@@ -6941,7 +6999,7 @@
       </c>
       <c r="G135" s="21"/>
     </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B136" s="20" t="s">
         <v>5</v>
       </c>
@@ -6959,7 +7017,7 @@
       </c>
       <c r="G136" s="21"/>
     </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B137" s="20" t="s">
         <v>5</v>
       </c>
@@ -6977,7 +7035,7 @@
       </c>
       <c r="G137" s="21"/>
     </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B138" s="20" t="s">
         <v>5</v>
       </c>
@@ -6995,7 +7053,7 @@
       </c>
       <c r="G138" s="21"/>
     </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B139" s="20" t="s">
         <v>5</v>
       </c>
@@ -7013,7 +7071,7 @@
       </c>
       <c r="G139" s="21"/>
     </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B140" s="20" t="s">
         <v>5</v>
       </c>
@@ -7031,7 +7089,7 @@
       </c>
       <c r="G140" s="21"/>
     </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B141" s="20" t="s">
         <v>5</v>
       </c>
@@ -7049,7 +7107,7 @@
       </c>
       <c r="G141" s="21"/>
     </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B142" s="20" t="s">
         <v>5</v>
       </c>
@@ -7067,7 +7125,7 @@
       </c>
       <c r="G142" s="21"/>
     </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B143" s="20" t="s">
         <v>5</v>
       </c>
@@ -7085,7 +7143,7 @@
       </c>
       <c r="G143" s="21"/>
     </row>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B144" s="20" t="s">
         <v>5</v>
       </c>
@@ -7103,7 +7161,7 @@
       </c>
       <c r="G144" s="21"/>
     </row>
-    <row r="145" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B145" s="20" t="s">
         <v>5</v>
       </c>
@@ -7121,7 +7179,7 @@
       </c>
       <c r="G145" s="21"/>
     </row>
-    <row r="146" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B146" s="20" t="s">
         <v>5</v>
       </c>
@@ -7139,7 +7197,7 @@
       </c>
       <c r="G146" s="21"/>
     </row>
-    <row r="147" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B147" s="20" t="s">
         <v>5</v>
       </c>
@@ -7157,7 +7215,7 @@
       </c>
       <c r="G147" s="21"/>
     </row>
-    <row r="148" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B148" s="20" t="s">
         <v>5</v>
       </c>
@@ -7175,7 +7233,7 @@
       </c>
       <c r="G148" s="21"/>
     </row>
-    <row r="149" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B149" s="20" t="s">
         <v>5</v>
       </c>
@@ -7193,7 +7251,7 @@
       </c>
       <c r="G149" s="21"/>
     </row>
-    <row r="150" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B150" s="20" t="s">
         <v>5</v>
       </c>
@@ -7211,7 +7269,7 @@
       </c>
       <c r="G150" s="21"/>
     </row>
-    <row r="151" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B151" s="20" t="s">
         <v>5</v>
       </c>
@@ -7229,7 +7287,7 @@
       </c>
       <c r="G151" s="21"/>
     </row>
-    <row r="152" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B152" s="20" t="s">
         <v>5</v>
       </c>
@@ -7247,7 +7305,7 @@
       </c>
       <c r="G152" s="21"/>
     </row>
-    <row r="153" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B153" s="20" t="s">
         <v>5</v>
       </c>
@@ -7265,7 +7323,7 @@
       </c>
       <c r="G153" s="21"/>
     </row>
-    <row r="154" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B154" s="20" t="s">
         <v>5</v>
       </c>
@@ -7283,7 +7341,7 @@
       </c>
       <c r="G154" s="21"/>
     </row>
-    <row r="155" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B155" s="20" t="s">
         <v>5</v>
       </c>
@@ -7301,7 +7359,7 @@
       </c>
       <c r="G155" s="21"/>
     </row>
-    <row r="156" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B156" s="20" t="s">
         <v>5</v>
       </c>
@@ -7319,7 +7377,7 @@
       </c>
       <c r="G156" s="21"/>
     </row>
-    <row r="157" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B157" s="20" t="s">
         <v>5</v>
       </c>
@@ -7337,7 +7395,7 @@
       </c>
       <c r="G157" s="21"/>
     </row>
-    <row r="158" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B158" s="20" t="s">
         <v>5</v>
       </c>
@@ -7355,7 +7413,7 @@
       </c>
       <c r="G158" s="21"/>
     </row>
-    <row r="159" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B159" s="20" t="s">
         <v>5</v>
       </c>
@@ -7373,7 +7431,7 @@
       </c>
       <c r="G159" s="21"/>
     </row>
-    <row r="160" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B160" s="20" t="s">
         <v>5</v>
       </c>
@@ -7391,7 +7449,7 @@
       </c>
       <c r="G160" s="21"/>
     </row>
-    <row r="161" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="161" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B161" s="20" t="s">
         <v>5</v>
       </c>
@@ -7409,7 +7467,7 @@
       </c>
       <c r="G161" s="21"/>
     </row>
-    <row r="162" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="162" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B162" s="20" t="s">
         <v>5</v>
       </c>
@@ -7427,7 +7485,7 @@
       </c>
       <c r="G162" s="21"/>
     </row>
-    <row r="163" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="163" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B163" s="20" t="s">
         <v>5</v>
       </c>
@@ -7445,7 +7503,7 @@
       </c>
       <c r="G163" s="21"/>
     </row>
-    <row r="164" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="164" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B164" s="20" t="s">
         <v>5</v>
       </c>
@@ -7463,7 +7521,7 @@
       </c>
       <c r="G164" s="21"/>
     </row>
-    <row r="165" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="165" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B165" s="20" t="s">
         <v>5</v>
       </c>
@@ -7481,7 +7539,7 @@
       </c>
       <c r="G165" s="21"/>
     </row>
-    <row r="166" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="166" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B166" s="20" t="s">
         <v>5</v>
       </c>
@@ -7499,7 +7557,7 @@
       </c>
       <c r="G166" s="21"/>
     </row>
-    <row r="167" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="167" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B167" s="20" t="s">
         <v>5</v>
       </c>
@@ -7517,7 +7575,7 @@
       </c>
       <c r="G167" s="21"/>
     </row>
-    <row r="168" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="168" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B168" s="20" t="s">
         <v>5</v>
       </c>
@@ -7535,7 +7593,7 @@
       </c>
       <c r="G168" s="21"/>
     </row>
-    <row r="169" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="169" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B169" s="20" t="s">
         <v>5</v>
       </c>
@@ -7805,7 +7863,7 @@
       </c>
       <c r="G183" s="21"/>
     </row>
-    <row r="184" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="184" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B184" s="20" t="s">
         <v>5</v>
       </c>
@@ -7823,7 +7881,7 @@
       </c>
       <c r="G184" s="21"/>
     </row>
-    <row r="185" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="185" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B185" s="20" t="s">
         <v>5</v>
       </c>
@@ -7841,7 +7899,7 @@
       </c>
       <c r="G185" s="21"/>
     </row>
-    <row r="186" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="186" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B186" s="20" t="s">
         <v>5</v>
       </c>
@@ -7859,7 +7917,7 @@
       </c>
       <c r="G186" s="21"/>
     </row>
-    <row r="187" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="187" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B187" s="20" t="s">
         <v>5</v>
       </c>
@@ -7877,7 +7935,7 @@
       </c>
       <c r="G187" s="21"/>
     </row>
-    <row r="188" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="188" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B188" s="20" t="s">
         <v>5</v>
       </c>
@@ -7895,7 +7953,7 @@
       </c>
       <c r="G188" s="21"/>
     </row>
-    <row r="189" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="189" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B189" s="20" t="s">
         <v>5</v>
       </c>
@@ -7913,7 +7971,7 @@
       </c>
       <c r="G189" s="21"/>
     </row>
-    <row r="190" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="190" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B190" s="20" t="s">
         <v>5</v>
       </c>
@@ -7931,7 +7989,7 @@
       </c>
       <c r="G190" s="21"/>
     </row>
-    <row r="191" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="191" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B191" s="20" t="s">
         <v>5</v>
       </c>
@@ -7949,7 +8007,7 @@
       </c>
       <c r="G191" s="21"/>
     </row>
-    <row r="192" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="192" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B192" s="20" t="s">
         <v>5</v>
       </c>
@@ -7967,7 +8025,7 @@
       </c>
       <c r="G192" s="21"/>
     </row>
-    <row r="193" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="193" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B193" s="20" t="s">
         <v>5</v>
       </c>
@@ -7985,7 +8043,7 @@
       </c>
       <c r="G193" s="21"/>
     </row>
-    <row r="194" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="194" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B194" s="20" t="s">
         <v>5</v>
       </c>
@@ -8003,7 +8061,7 @@
       </c>
       <c r="G194" s="21"/>
     </row>
-    <row r="195" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="195" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B195" s="20" t="s">
         <v>5</v>
       </c>
@@ -8021,7 +8079,7 @@
       </c>
       <c r="G195" s="21"/>
     </row>
-    <row r="196" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="196" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B196" s="20" t="s">
         <v>5</v>
       </c>
@@ -8039,7 +8097,7 @@
       </c>
       <c r="G196" s="21"/>
     </row>
-    <row r="197" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="197" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B197" s="20" t="s">
         <v>5</v>
       </c>
@@ -8057,7 +8115,7 @@
       </c>
       <c r="G197" s="21"/>
     </row>
-    <row r="198" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="198" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B198" s="20" t="s">
         <v>5</v>
       </c>
@@ -8075,7 +8133,7 @@
       </c>
       <c r="G198" s="21"/>
     </row>
-    <row r="199" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="199" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B199" s="20" t="s">
         <v>5</v>
       </c>
@@ -8093,7 +8151,7 @@
       </c>
       <c r="G199" s="21"/>
     </row>
-    <row r="200" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="200" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B200" s="20" t="s">
         <v>5</v>
       </c>
@@ -8111,7 +8169,7 @@
       </c>
       <c r="G200" s="21"/>
     </row>
-    <row r="201" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="201" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B201" s="20" t="s">
         <v>5</v>
       </c>
@@ -8129,7 +8187,7 @@
       </c>
       <c r="G201" s="21"/>
     </row>
-    <row r="202" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="202" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B202" s="20" t="s">
         <v>5</v>
       </c>
@@ -8147,7 +8205,7 @@
       </c>
       <c r="G202" s="21"/>
     </row>
-    <row r="203" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="203" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B203" s="20" t="s">
         <v>5</v>
       </c>
@@ -8165,7 +8223,7 @@
       </c>
       <c r="G203" s="21"/>
     </row>
-    <row r="204" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="204" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B204" s="20" t="s">
         <v>5</v>
       </c>
@@ -8183,7 +8241,7 @@
       </c>
       <c r="G204" s="21"/>
     </row>
-    <row r="205" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="205" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B205" s="20" t="s">
         <v>5</v>
       </c>
@@ -8201,7 +8259,7 @@
       </c>
       <c r="G205" s="21"/>
     </row>
-    <row r="206" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="206" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B206" s="20" t="s">
         <v>5</v>
       </c>
@@ -8219,7 +8277,7 @@
       </c>
       <c r="G206" s="21"/>
     </row>
-    <row r="207" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="207" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B207" s="20" t="s">
         <v>5</v>
       </c>
@@ -8237,7 +8295,7 @@
       </c>
       <c r="G207" s="21"/>
     </row>
-    <row r="208" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="208" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B208" s="20" t="s">
         <v>5</v>
       </c>
@@ -8255,7 +8313,7 @@
       </c>
       <c r="G208" s="21"/>
     </row>
-    <row r="209" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="209" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B209" s="20" t="s">
         <v>5</v>
       </c>
@@ -8273,7 +8331,7 @@
       </c>
       <c r="G209" s="21"/>
     </row>
-    <row r="210" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="210" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B210" s="20" t="s">
         <v>5</v>
       </c>
@@ -8291,7 +8349,7 @@
       </c>
       <c r="G210" s="21"/>
     </row>
-    <row r="211" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="211" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B211" s="20" t="s">
         <v>5</v>
       </c>
@@ -8309,7 +8367,7 @@
       </c>
       <c r="G211" s="21"/>
     </row>
-    <row r="212" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="212" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B212" s="20" t="s">
         <v>5</v>
       </c>
@@ -8327,7 +8385,7 @@
       </c>
       <c r="G212" s="21"/>
     </row>
-    <row r="213" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="213" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B213" s="20" t="s">
         <v>5</v>
       </c>
@@ -8345,7 +8403,7 @@
       </c>
       <c r="G213" s="21"/>
     </row>
-    <row r="214" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="214" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B214" s="20" t="s">
         <v>5</v>
       </c>
@@ -8363,7 +8421,7 @@
       </c>
       <c r="G214" s="21"/>
     </row>
-    <row r="215" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="215" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B215" s="20" t="s">
         <v>5</v>
       </c>
@@ -8381,7 +8439,7 @@
       </c>
       <c r="G215" s="21"/>
     </row>
-    <row r="216" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="216" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B216" s="20" t="s">
         <v>5</v>
       </c>
@@ -8399,7 +8457,7 @@
       </c>
       <c r="G216" s="21"/>
     </row>
-    <row r="217" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="217" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B217" s="20" t="s">
         <v>5</v>
       </c>
@@ -8417,7 +8475,7 @@
       </c>
       <c r="G217" s="21"/>
     </row>
-    <row r="218" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="218" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B218" s="20" t="s">
         <v>5</v>
       </c>
@@ -8435,7 +8493,7 @@
       </c>
       <c r="G218" s="21"/>
     </row>
-    <row r="219" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="219" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B219" s="20" t="s">
         <v>5</v>
       </c>
@@ -8453,7 +8511,7 @@
       </c>
       <c r="G219" s="21"/>
     </row>
-    <row r="220" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="220" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B220" s="20" t="s">
         <v>5</v>
       </c>
@@ -8471,7 +8529,7 @@
       </c>
       <c r="G220" s="21"/>
     </row>
-    <row r="221" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="221" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B221" s="20" t="s">
         <v>5</v>
       </c>
@@ -8489,7 +8547,7 @@
       </c>
       <c r="G221" s="21"/>
     </row>
-    <row r="222" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="222" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B222" s="20" t="s">
         <v>5</v>
       </c>
@@ -8507,7 +8565,7 @@
       </c>
       <c r="G222" s="21"/>
     </row>
-    <row r="223" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="223" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B223" s="20" t="s">
         <v>5</v>
       </c>
@@ -8525,7 +8583,7 @@
       </c>
       <c r="G223" s="21"/>
     </row>
-    <row r="224" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="224" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B224" s="20" t="s">
         <v>5</v>
       </c>
@@ -8543,7 +8601,7 @@
       </c>
       <c r="G224" s="21"/>
     </row>
-    <row r="225" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="225" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B225" s="20" t="s">
         <v>5</v>
       </c>
@@ -8561,7 +8619,7 @@
       </c>
       <c r="G225" s="21"/>
     </row>
-    <row r="226" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="226" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B226" s="20" t="s">
         <v>5</v>
       </c>
@@ -8579,7 +8637,7 @@
       </c>
       <c r="G226" s="21"/>
     </row>
-    <row r="227" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="227" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B227" s="20" t="s">
         <v>5</v>
       </c>
@@ -8597,7 +8655,7 @@
       </c>
       <c r="G227" s="21"/>
     </row>
-    <row r="228" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="228" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B228" s="20" t="s">
         <v>5</v>
       </c>
@@ -8615,7 +8673,7 @@
       </c>
       <c r="G228" s="21"/>
     </row>
-    <row r="229" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="229" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B229" s="20" t="s">
         <v>5</v>
       </c>
@@ -8633,7 +8691,7 @@
       </c>
       <c r="G229" s="21"/>
     </row>
-    <row r="230" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="230" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B230" s="20" t="s">
         <v>5</v>
       </c>
@@ -8651,7 +8709,7 @@
       </c>
       <c r="G230" s="21"/>
     </row>
-    <row r="231" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="231" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B231" s="20" t="s">
         <v>5</v>
       </c>
@@ -8669,7 +8727,7 @@
       </c>
       <c r="G231" s="21"/>
     </row>
-    <row r="232" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="232" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B232" s="20" t="s">
         <v>5</v>
       </c>
@@ -8687,7 +8745,7 @@
       </c>
       <c r="G232" s="21"/>
     </row>
-    <row r="233" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="233" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B233" s="20" t="s">
         <v>5</v>
       </c>
@@ -8705,7 +8763,7 @@
       </c>
       <c r="G233" s="21"/>
     </row>
-    <row r="234" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="234" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B234" s="20" t="s">
         <v>5</v>
       </c>
@@ -8723,7 +8781,7 @@
       </c>
       <c r="G234" s="21"/>
     </row>
-    <row r="235" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="235" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B235" s="20" t="s">
         <v>5</v>
       </c>
@@ -8741,7 +8799,7 @@
       </c>
       <c r="G235" s="21"/>
     </row>
-    <row r="236" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="236" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B236" s="20" t="s">
         <v>5</v>
       </c>
@@ -8759,7 +8817,7 @@
       </c>
       <c r="G236" s="21"/>
     </row>
-    <row r="237" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="237" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B237" s="20" t="s">
         <v>5</v>
       </c>
@@ -8777,7 +8835,7 @@
       </c>
       <c r="G237" s="21"/>
     </row>
-    <row r="238" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="238" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B238" s="20" t="s">
         <v>5</v>
       </c>
@@ -8795,7 +8853,7 @@
       </c>
       <c r="G238" s="21"/>
     </row>
-    <row r="239" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="239" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B239" s="20" t="s">
         <v>5</v>
       </c>
@@ -8813,7 +8871,7 @@
       </c>
       <c r="G239" s="21"/>
     </row>
-    <row r="240" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="240" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B240" s="20" t="s">
         <v>5</v>
       </c>
@@ -8831,7 +8889,7 @@
       </c>
       <c r="G240" s="21"/>
     </row>
-    <row r="241" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="241" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B241" s="20" t="s">
         <v>5</v>
       </c>
@@ -8849,7 +8907,7 @@
       </c>
       <c r="G241" s="21"/>
     </row>
-    <row r="242" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="242" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B242" s="20" t="s">
         <v>5</v>
       </c>
@@ -8867,7 +8925,7 @@
       </c>
       <c r="G242" s="21"/>
     </row>
-    <row r="243" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="243" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B243" s="20" t="s">
         <v>5</v>
       </c>
@@ -8885,7 +8943,7 @@
       </c>
       <c r="G243" s="21"/>
     </row>
-    <row r="244" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="244" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B244" s="20" t="s">
         <v>5</v>
       </c>
@@ -8903,7 +8961,7 @@
       </c>
       <c r="G244" s="21"/>
     </row>
-    <row r="245" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="245" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B245" s="20" t="s">
         <v>5</v>
       </c>
@@ -8921,7 +8979,7 @@
       </c>
       <c r="G245" s="21"/>
     </row>
-    <row r="246" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="246" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B246" s="20" t="s">
         <v>5</v>
       </c>
@@ -8939,7 +8997,7 @@
       </c>
       <c r="G246" s="21"/>
     </row>
-    <row r="247" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="247" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B247" s="20" t="s">
         <v>5</v>
       </c>
@@ -8957,7 +9015,7 @@
       </c>
       <c r="G247" s="21"/>
     </row>
-    <row r="248" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="248" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B248" s="20" t="s">
         <v>5</v>
       </c>
@@ -8975,7 +9033,7 @@
       </c>
       <c r="G248" s="22"/>
     </row>
-    <row r="249" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="249" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B249" s="20" t="s">
         <v>5</v>
       </c>
@@ -8993,7 +9051,7 @@
       </c>
       <c r="G249" s="23"/>
     </row>
-    <row r="250" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="250" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B250" s="20" t="s">
         <v>5</v>
       </c>
@@ -9011,7 +9069,7 @@
       </c>
       <c r="G250" s="21"/>
     </row>
-    <row r="251" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="251" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B251" s="20" t="s">
         <v>5</v>
       </c>
@@ -9029,7 +9087,7 @@
       </c>
       <c r="G251" s="21"/>
     </row>
-    <row r="252" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="252" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B252" s="20" t="s">
         <v>5</v>
       </c>
@@ -9047,7 +9105,7 @@
       </c>
       <c r="G252" s="21"/>
     </row>
-    <row r="253" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="253" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B253" s="20" t="s">
         <v>5</v>
       </c>
@@ -9119,7 +9177,7 @@
       </c>
       <c r="G256" s="21"/>
     </row>
-    <row r="257" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="257" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B257" s="20" t="s">
         <v>5</v>
       </c>
@@ -9137,7 +9195,7 @@
       </c>
       <c r="G257" s="21"/>
     </row>
-    <row r="258" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="258" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B258" s="20" t="s">
         <v>5</v>
       </c>
@@ -9155,7 +9213,7 @@
       </c>
       <c r="G258" s="21"/>
     </row>
-    <row r="259" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="259" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B259" s="20" t="s">
         <v>5</v>
       </c>
@@ -9173,7 +9231,7 @@
       </c>
       <c r="G259" s="21"/>
     </row>
-    <row r="260" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="260" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B260" s="20" t="s">
         <v>5</v>
       </c>
@@ -9191,7 +9249,7 @@
       </c>
       <c r="G260" s="21"/>
     </row>
-    <row r="261" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="261" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B261" s="20" t="s">
         <v>5</v>
       </c>
@@ -9209,7 +9267,7 @@
       </c>
       <c r="G261" s="21"/>
     </row>
-    <row r="262" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="262" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B262" s="20" t="s">
         <v>5</v>
       </c>
@@ -9227,7 +9285,7 @@
       </c>
       <c r="G262" s="21"/>
     </row>
-    <row r="263" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="263" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B263" s="20" t="s">
         <v>510</v>
       </c>
@@ -9247,7 +9305,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="264" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="264" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B264" s="20" t="s">
         <v>510</v>
       </c>
@@ -9267,7 +9325,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="265" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="265" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B265" s="20" t="s">
         <v>510</v>
       </c>
@@ -9287,7 +9345,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="266" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="266" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B266" s="20" t="s">
         <v>510</v>
       </c>
@@ -9307,7 +9365,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="267" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="267" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B267" s="20" t="s">
         <v>510</v>
       </c>
@@ -9327,7 +9385,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="268" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="268" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B268" s="20" t="s">
         <v>510</v>
       </c>
@@ -9347,7 +9405,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="269" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="269" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B269" s="20" t="s">
         <v>510</v>
       </c>
@@ -9367,7 +9425,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="270" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="270" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B270" s="20" t="s">
         <v>510</v>
       </c>
@@ -9387,7 +9445,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="271" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="271" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B271" s="20" t="s">
         <v>510</v>
       </c>
@@ -9407,7 +9465,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="272" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="272" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B272" s="20" t="s">
         <v>510</v>
       </c>
@@ -9427,7 +9485,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="273" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="273" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B273" s="20" t="s">
         <v>510</v>
       </c>
@@ -9447,7 +9505,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="274" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="274" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B274" s="20" t="s">
         <v>510</v>
       </c>
@@ -9467,7 +9525,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="275" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="275" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B275" s="20" t="s">
         <v>510</v>
       </c>
@@ -9487,7 +9545,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="276" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="276" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B276" s="20" t="s">
         <v>510</v>
       </c>
@@ -9507,7 +9565,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="277" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="277" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B277" s="20" t="s">
         <v>510</v>
       </c>
@@ -9527,7 +9585,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="278" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="278" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B278" s="20" t="s">
         <v>510</v>
       </c>
@@ -9547,7 +9605,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="279" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="279" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B279" s="20" t="s">
         <v>510</v>
       </c>
@@ -9567,7 +9625,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="280" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="280" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B280" s="20" t="s">
         <v>510</v>
       </c>
@@ -9587,7 +9645,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="281" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="281" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B281" s="20" t="s">
         <v>510</v>
       </c>
@@ -9607,7 +9665,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="282" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="282" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B282" s="20" t="s">
         <v>510</v>
       </c>
@@ -9627,7 +9685,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="283" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="283" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B283" s="20" t="s">
         <v>510</v>
       </c>
@@ -9647,7 +9705,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="284" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="284" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B284" s="20" t="s">
         <v>510</v>
       </c>
@@ -9667,7 +9725,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="285" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="285" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B285" s="20" t="s">
         <v>510</v>
       </c>
@@ -9687,7 +9745,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="286" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="286" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B286" s="20" t="s">
         <v>510</v>
       </c>
@@ -9707,7 +9765,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="287" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="287" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B287" s="20" t="s">
         <v>510</v>
       </c>
@@ -9727,7 +9785,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="288" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="288" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B288" s="20" t="s">
         <v>510</v>
       </c>
@@ -9747,7 +9805,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="289" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="289" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B289" s="20" t="s">
         <v>510</v>
       </c>
@@ -9767,7 +9825,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="290" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="290" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B290" s="20" t="s">
         <v>510</v>
       </c>
@@ -9787,7 +9845,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="291" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="291" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B291" s="20" t="s">
         <v>510</v>
       </c>
@@ -9807,7 +9865,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="292" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="292" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B292" s="20" t="s">
         <v>510</v>
       </c>
@@ -9827,7 +9885,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="293" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="293" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B293" s="20" t="s">
         <v>510</v>
       </c>
@@ -9847,7 +9905,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="294" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="294" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B294" s="20" t="s">
         <v>510</v>
       </c>
@@ -9867,7 +9925,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="295" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="295" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B295" s="20" t="s">
         <v>510</v>
       </c>
@@ -9887,7 +9945,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="296" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="296" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B296" s="20" t="s">
         <v>510</v>
       </c>
@@ -9907,7 +9965,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="297" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="297" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B297" s="20" t="s">
         <v>510</v>
       </c>
@@ -9927,7 +9985,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="298" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="298" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B298" s="20" t="s">
         <v>510</v>
       </c>
@@ -9947,7 +10005,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="299" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="299" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B299" s="20" t="s">
         <v>510</v>
       </c>
@@ -9967,7 +10025,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="300" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="300" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B300" s="20" t="s">
         <v>510</v>
       </c>
@@ -9987,7 +10045,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="301" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="301" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B301" s="20" t="s">
         <v>510</v>
       </c>
@@ -10007,7 +10065,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="302" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="302" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B302" s="20" t="s">
         <v>510</v>
       </c>
@@ -10027,7 +10085,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="303" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="303" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B303" s="20" t="s">
         <v>510</v>
       </c>
@@ -10047,7 +10105,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="304" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="304" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B304" s="20" t="s">
         <v>510</v>
       </c>
@@ -10067,7 +10125,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="305" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="305" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B305" s="20" t="s">
         <v>510</v>
       </c>
@@ -10087,7 +10145,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="306" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="306" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B306" s="20" t="s">
         <v>510</v>
       </c>
@@ -10107,7 +10165,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="307" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="307" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B307" s="20" t="s">
         <v>510</v>
       </c>
@@ -10127,7 +10185,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="308" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="308" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B308" s="20" t="s">
         <v>510</v>
       </c>
@@ -10147,7 +10205,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="309" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="309" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B309" s="20" t="s">
         <v>510</v>
       </c>
@@ -10167,7 +10225,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="310" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="310" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B310" s="20" t="s">
         <v>510</v>
       </c>
@@ -10187,7 +10245,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="311" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="311" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B311" s="20" t="s">
         <v>510</v>
       </c>
@@ -10207,7 +10265,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="312" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="312" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B312" s="20" t="s">
         <v>510</v>
       </c>
@@ -10227,7 +10285,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="313" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="313" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B313" s="20" t="s">
         <v>510</v>
       </c>
@@ -10247,7 +10305,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="314" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="314" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B314" s="20" t="s">
         <v>510</v>
       </c>
@@ -10267,7 +10325,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="315" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="315" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B315" s="20" t="s">
         <v>510</v>
       </c>
@@ -10287,7 +10345,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="316" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="316" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B316" s="20" t="s">
         <v>510</v>
       </c>
@@ -10307,7 +10365,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="317" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="317" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B317" s="20" t="s">
         <v>510</v>
       </c>
@@ -10327,7 +10385,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="318" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="318" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B318" s="20" t="s">
         <v>510</v>
       </c>
@@ -10347,7 +10405,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="319" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="319" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B319" s="20" t="s">
         <v>510</v>
       </c>
@@ -10367,7 +10425,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="320" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="320" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B320" s="20" t="s">
         <v>510</v>
       </c>
@@ -10387,7 +10445,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="321" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="321" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B321" s="20" t="s">
         <v>510</v>
       </c>
@@ -10407,7 +10465,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="322" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="322" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B322" s="20" t="s">
         <v>510</v>
       </c>
@@ -10427,7 +10485,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="323" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="323" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B323" s="20" t="s">
         <v>510</v>
       </c>
@@ -10447,7 +10505,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="324" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="324" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B324" s="20" t="s">
         <v>510</v>
       </c>
@@ -10467,7 +10525,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="325" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="325" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B325" s="20" t="s">
         <v>510</v>
       </c>
@@ -10487,7 +10545,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="326" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="326" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B326" s="20" t="s">
         <v>510</v>
       </c>
@@ -10507,7 +10565,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="327" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="327" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B327" s="20" t="s">
         <v>510</v>
       </c>
@@ -10527,7 +10585,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="328" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="328" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B328" s="20" t="s">
         <v>510</v>
       </c>
@@ -10547,7 +10605,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="329" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="329" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B329" s="20" t="s">
         <v>510</v>
       </c>
@@ -10567,7 +10625,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="330" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="330" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B330" s="20" t="s">
         <v>510</v>
       </c>
@@ -10587,7 +10645,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="331" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="331" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B331" s="20" t="s">
         <v>510</v>
       </c>
@@ -10607,7 +10665,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="332" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="332" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B332" s="20" t="s">
         <v>510</v>
       </c>
@@ -10627,7 +10685,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="333" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="333" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B333" s="20" t="s">
         <v>510</v>
       </c>
@@ -10647,7 +10705,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="334" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="334" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B334" s="20" t="s">
         <v>510</v>
       </c>
@@ -10667,7 +10725,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="335" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="335" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B335" s="20" t="s">
         <v>510</v>
       </c>
@@ -10687,7 +10745,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="336" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="336" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B336" s="20" t="s">
         <v>510</v>
       </c>
@@ -10707,7 +10765,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="337" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="337" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B337" s="20" t="s">
         <v>510</v>
       </c>
@@ -10727,7 +10785,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="338" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="338" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B338" s="20" t="s">
         <v>510</v>
       </c>
@@ -10747,7 +10805,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="339" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="339" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B339" s="20" t="s">
         <v>510</v>
       </c>
@@ -10767,7 +10825,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="340" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="340" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B340" s="20" t="s">
         <v>510</v>
       </c>
@@ -10787,7 +10845,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="341" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="341" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B341" s="20" t="s">
         <v>510</v>
       </c>
@@ -10807,7 +10865,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="342" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="342" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B342" s="20" t="s">
         <v>510</v>
       </c>
@@ -10827,7 +10885,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="343" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="343" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B343" s="20" t="s">
         <v>510</v>
       </c>
@@ -10847,7 +10905,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="344" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="344" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B344" s="20" t="s">
         <v>510</v>
       </c>
@@ -10867,7 +10925,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="345" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="345" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B345" s="20" t="s">
         <v>510</v>
       </c>
@@ -10887,7 +10945,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="346" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="346" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B346" s="20" t="s">
         <v>510</v>
       </c>
@@ -10907,7 +10965,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="347" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="347" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B347" s="20" t="s">
         <v>510</v>
       </c>
@@ -10927,7 +10985,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="348" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="348" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B348" s="20" t="s">
         <v>510</v>
       </c>
@@ -10947,7 +11005,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="349" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="349" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B349" s="20" t="s">
         <v>510</v>
       </c>
@@ -10967,7 +11025,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="350" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="350" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B350" s="20" t="s">
         <v>510</v>
       </c>
@@ -11207,7 +11265,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="362" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="362" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B362" s="20" t="s">
         <v>510</v>
       </c>
@@ -11227,7 +11285,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="363" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="363" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B363" s="20" t="s">
         <v>510</v>
       </c>
@@ -11247,7 +11305,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="364" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="364" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B364" s="20" t="s">
         <v>510</v>
       </c>
@@ -11267,7 +11325,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="365" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="365" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B365" s="20" t="s">
         <v>510</v>
       </c>
@@ -11287,7 +11345,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="366" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="366" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B366" s="20" t="s">
         <v>510</v>
       </c>
@@ -11307,7 +11365,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="367" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="367" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B367" s="20" t="s">
         <v>510</v>
       </c>
@@ -11327,7 +11385,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="368" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="368" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B368" s="20" t="s">
         <v>510</v>
       </c>
@@ -11347,7 +11405,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="369" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="369" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B369" s="20" t="s">
         <v>510</v>
       </c>
@@ -11367,7 +11425,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="370" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="370" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B370" s="20" t="s">
         <v>510</v>
       </c>
@@ -11387,7 +11445,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="371" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="371" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B371" s="20" t="s">
         <v>510</v>
       </c>
@@ -11407,7 +11465,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="372" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="372" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B372" s="20" t="s">
         <v>510</v>
       </c>
@@ -11427,7 +11485,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="373" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="373" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B373" s="20" t="s">
         <v>510</v>
       </c>
@@ -11447,7 +11505,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="374" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="374" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B374" s="20" t="s">
         <v>510</v>
       </c>
@@ -11467,7 +11525,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="375" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="375" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B375" s="20" t="s">
         <v>510</v>
       </c>
@@ -11487,7 +11545,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="376" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="376" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B376" s="20" t="s">
         <v>510</v>
       </c>
@@ -11507,7 +11565,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="377" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="377" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B377" s="20" t="s">
         <v>510</v>
       </c>
@@ -11527,7 +11585,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="378" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="378" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B378" s="20" t="s">
         <v>510</v>
       </c>
@@ -11547,7 +11605,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="379" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="379" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B379" s="20" t="s">
         <v>510</v>
       </c>
@@ -11567,7 +11625,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="380" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="380" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B380" s="20" t="s">
         <v>510</v>
       </c>
@@ -11587,7 +11645,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="381" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="381" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B381" s="20" t="s">
         <v>510</v>
       </c>
@@ -11607,7 +11665,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="382" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="382" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B382" s="20" t="s">
         <v>510</v>
       </c>
@@ -11627,7 +11685,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="383" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="383" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B383" s="20" t="s">
         <v>510</v>
       </c>
@@ -11647,7 +11705,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="384" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="384" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B384" s="20" t="s">
         <v>510</v>
       </c>
@@ -11667,7 +11725,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="385" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="385" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B385" s="20" t="s">
         <v>510</v>
       </c>
@@ -11687,7 +11745,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="386" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="386" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B386" s="20" t="s">
         <v>510</v>
       </c>
@@ -11707,7 +11765,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="387" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="387" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B387" s="20" t="s">
         <v>510</v>
       </c>
@@ -11727,7 +11785,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="388" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="388" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B388" s="20" t="s">
         <v>510</v>
       </c>
@@ -11747,7 +11805,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="389" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="389" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B389" s="20" t="s">
         <v>510</v>
       </c>
@@ -11767,7 +11825,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="390" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="390" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B390" s="20" t="s">
         <v>510</v>
       </c>
@@ -11787,7 +11845,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="391" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="391" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B391" s="20" t="s">
         <v>510</v>
       </c>
@@ -11807,7 +11865,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="392" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="392" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B392" s="20" t="s">
         <v>510</v>
       </c>
@@ -11827,7 +11885,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="393" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="393" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B393" s="20" t="s">
         <v>510</v>
       </c>
@@ -11847,7 +11905,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="394" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="394" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B394" s="20" t="s">
         <v>510</v>
       </c>
@@ -11867,7 +11925,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="395" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="395" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B395" s="20" t="s">
         <v>510</v>
       </c>
@@ -11887,7 +11945,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="396" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="396" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B396" s="20" t="s">
         <v>510</v>
       </c>
@@ -11907,7 +11965,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="397" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="397" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B397" s="20" t="s">
         <v>510</v>
       </c>
@@ -11927,7 +11985,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="398" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="398" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B398" s="20" t="s">
         <v>510</v>
       </c>
@@ -11947,7 +12005,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="399" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="399" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B399" s="20" t="s">
         <v>510</v>
       </c>
@@ -11967,7 +12025,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="400" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="400" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B400" s="20" t="s">
         <v>510</v>
       </c>
@@ -11987,7 +12045,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="401" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="401" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B401" s="20" t="s">
         <v>510</v>
       </c>
@@ -12007,7 +12065,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="402" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="402" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B402" s="20" t="s">
         <v>510</v>
       </c>
@@ -12027,7 +12085,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="403" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="403" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B403" s="20" t="s">
         <v>510</v>
       </c>
@@ -12047,7 +12105,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="404" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="404" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B404" s="20" t="s">
         <v>510</v>
       </c>
@@ -12067,7 +12125,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="405" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="405" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B405" s="20" t="s">
         <v>510</v>
       </c>
@@ -12087,7 +12145,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="406" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="406" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B406" s="20" t="s">
         <v>510</v>
       </c>
@@ -12107,7 +12165,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="407" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="407" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B407" s="20" t="s">
         <v>510</v>
       </c>
@@ -12127,7 +12185,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="408" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="408" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B408" s="20" t="s">
         <v>510</v>
       </c>
@@ -12147,7 +12205,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="409" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="409" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B409" s="20" t="s">
         <v>510</v>
       </c>
@@ -12167,7 +12225,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="410" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="410" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B410" s="20" t="s">
         <v>510</v>
       </c>
@@ -12187,7 +12245,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="411" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="411" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B411" s="20" t="s">
         <v>510</v>
       </c>
@@ -12207,7 +12265,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="412" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="412" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B412" s="20" t="s">
         <v>510</v>
       </c>
@@ -12227,7 +12285,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="413" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="413" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B413" s="20" t="s">
         <v>510</v>
       </c>
@@ -12247,7 +12305,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="414" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="414" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B414" s="20" t="s">
         <v>510</v>
       </c>
@@ -12267,7 +12325,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="415" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="415" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B415" s="20" t="s">
         <v>510</v>
       </c>
@@ -12287,7 +12345,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="416" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="416" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B416" s="20" t="s">
         <v>510</v>
       </c>
@@ -12347,7 +12405,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="419" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="419" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B419" s="20" t="s">
         <v>510</v>
       </c>
@@ -12367,7 +12425,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="420" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="420" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B420" s="20" t="s">
         <v>510</v>
       </c>
@@ -12387,7 +12445,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="421" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="421" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B421" s="20" t="s">
         <v>510</v>
       </c>
@@ -12407,7 +12465,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="422" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="422" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="B422" s="28" t="s">
         <v>510</v>
       </c>
@@ -12436,6 +12494,705 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2065A8E1-1E76-428A-8557-40E4FD8966FF}">
+  <dimension ref="A1:E60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="58" t="s">
+        <v>540</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>935</v>
+      </c>
+      <c r="C1" s="58"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="59" t="s">
+        <v>542</v>
+      </c>
+      <c r="D2" s="60" t="s">
+        <v>828</v>
+      </c>
+      <c r="E2" s="60" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="59" t="s">
+        <v>564</v>
+      </c>
+      <c r="D3" s="60" t="s">
+        <v>831</v>
+      </c>
+      <c r="E3" s="60" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="59" t="s">
+        <v>572</v>
+      </c>
+      <c r="D4" s="60" t="s">
+        <v>833</v>
+      </c>
+      <c r="E4" s="60" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="59" t="s">
+        <v>580</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="D5" s="60" t="s">
+        <v>835</v>
+      </c>
+      <c r="E5" s="60" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="59" t="s">
+        <v>596</v>
+      </c>
+      <c r="D6" s="60" t="s">
+        <v>837</v>
+      </c>
+      <c r="E6" s="60" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="59" t="s">
+        <v>598</v>
+      </c>
+      <c r="D7" s="60" t="s">
+        <v>839</v>
+      </c>
+      <c r="E7" s="60" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="59" t="s">
+        <v>608</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="D8" s="60" t="s">
+        <v>841</v>
+      </c>
+      <c r="E8" s="60" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="59" t="s">
+        <v>615</v>
+      </c>
+      <c r="D9" s="60" t="s">
+        <v>843</v>
+      </c>
+      <c r="E9" s="60" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="59" t="s">
+        <v>623</v>
+      </c>
+      <c r="D10" s="60" t="s">
+        <v>846</v>
+      </c>
+      <c r="E10" s="60" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="59" t="s">
+        <v>639</v>
+      </c>
+      <c r="D11" s="60" t="s">
+        <v>848</v>
+      </c>
+      <c r="E11" s="60" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="59" t="s">
+        <v>647</v>
+      </c>
+      <c r="D12" s="60" t="s">
+        <v>850</v>
+      </c>
+      <c r="E12" s="60" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="59" t="s">
+        <v>655</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="D13" s="60" t="s">
+        <v>852</v>
+      </c>
+      <c r="E13" s="60" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="59" t="s">
+        <v>667</v>
+      </c>
+      <c r="D14" s="60" t="s">
+        <v>854</v>
+      </c>
+      <c r="E14" s="60" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="59" t="s">
+        <v>670</v>
+      </c>
+      <c r="D15" s="60" t="s">
+        <v>856</v>
+      </c>
+      <c r="E15" s="60" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="59" t="s">
+        <v>672</v>
+      </c>
+      <c r="D16" s="60" t="s">
+        <v>857</v>
+      </c>
+      <c r="E16" s="60" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="59" t="s">
+        <v>674</v>
+      </c>
+      <c r="D17" s="60" t="s">
+        <v>858</v>
+      </c>
+      <c r="E17" s="60" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="59" t="s">
+        <v>676</v>
+      </c>
+      <c r="D18" s="60" t="s">
+        <v>859</v>
+      </c>
+      <c r="E18" s="60" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="59" t="s">
+        <v>678</v>
+      </c>
+      <c r="D19" s="60" t="s">
+        <v>860</v>
+      </c>
+      <c r="E19" s="60" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="59" t="s">
+        <v>680</v>
+      </c>
+      <c r="D20" s="60" t="s">
+        <v>861</v>
+      </c>
+      <c r="E20" s="60" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="59" t="s">
+        <v>682</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="D21" s="60" t="s">
+        <v>862</v>
+      </c>
+      <c r="E21" s="60" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="59" t="s">
+        <v>684</v>
+      </c>
+      <c r="D22" s="60" t="s">
+        <v>863</v>
+      </c>
+      <c r="E22" s="60" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="59" t="s">
+        <v>686</v>
+      </c>
+      <c r="D23" s="60" t="s">
+        <v>864</v>
+      </c>
+      <c r="E23" s="60" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="59" t="s">
+        <v>688</v>
+      </c>
+      <c r="D24" s="60" t="s">
+        <v>865</v>
+      </c>
+      <c r="E24" s="60" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="59" t="s">
+        <v>690</v>
+      </c>
+      <c r="D25" s="60" t="s">
+        <v>866</v>
+      </c>
+      <c r="E25" s="60" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="59" t="s">
+        <v>692</v>
+      </c>
+      <c r="D26" s="60" t="s">
+        <v>867</v>
+      </c>
+      <c r="E26" s="60" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="59" t="s">
+        <v>694</v>
+      </c>
+      <c r="D27" s="60" t="s">
+        <v>868</v>
+      </c>
+      <c r="E27" s="60" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="59" t="s">
+        <v>696</v>
+      </c>
+      <c r="D28" s="60" t="s">
+        <v>870</v>
+      </c>
+      <c r="E28" s="60" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="59" t="s">
+        <v>698</v>
+      </c>
+      <c r="D29" s="60" t="s">
+        <v>871</v>
+      </c>
+      <c r="E29" s="60" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="59" t="s">
+        <v>700</v>
+      </c>
+      <c r="D30" s="60" t="s">
+        <v>872</v>
+      </c>
+      <c r="E30" s="60" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="59" t="s">
+        <v>702</v>
+      </c>
+      <c r="D31" s="60" t="s">
+        <v>873</v>
+      </c>
+      <c r="E31" s="60" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="59" t="s">
+        <v>703</v>
+      </c>
+      <c r="D32" s="60" t="s">
+        <v>874</v>
+      </c>
+      <c r="E32" s="60" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="59" t="s">
+        <v>705</v>
+      </c>
+      <c r="D33" s="60" t="s">
+        <v>875</v>
+      </c>
+      <c r="E33" s="60" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="59" t="s">
+        <v>707</v>
+      </c>
+      <c r="D34" s="60" t="s">
+        <v>876</v>
+      </c>
+      <c r="E34" s="60" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="59" t="s">
+        <v>709</v>
+      </c>
+      <c r="D35" s="60" t="s">
+        <v>877</v>
+      </c>
+      <c r="E35" s="60" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="59" t="s">
+        <v>711</v>
+      </c>
+      <c r="D36" s="60" t="s">
+        <v>878</v>
+      </c>
+      <c r="E36" s="60" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="59" t="s">
+        <v>713</v>
+      </c>
+      <c r="D37" s="60" t="s">
+        <v>879</v>
+      </c>
+      <c r="E37" s="60" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="59" t="s">
+        <v>715</v>
+      </c>
+      <c r="D38" s="60" t="s">
+        <v>880</v>
+      </c>
+      <c r="E38" s="60" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="59" t="s">
+        <v>717</v>
+      </c>
+      <c r="D39" s="60" t="s">
+        <v>881</v>
+      </c>
+      <c r="E39" s="60" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="59" t="s">
+        <v>884</v>
+      </c>
+      <c r="D40" s="60" t="s">
+        <v>885</v>
+      </c>
+      <c r="E40" s="60" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="59" t="s">
+        <v>887</v>
+      </c>
+      <c r="D41" s="60" t="s">
+        <v>888</v>
+      </c>
+      <c r="E41" s="60" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="59" t="str">
+        <f>"8638270080010616"</f>
+        <v>8638270080010616</v>
+      </c>
+      <c r="D42" s="60" t="s">
+        <v>890</v>
+      </c>
+      <c r="E42" s="60" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="59" t="str">
+        <f>"8638270104013016"</f>
+        <v>8638270104013016</v>
+      </c>
+      <c r="D43" s="60" t="s">
+        <v>891</v>
+      </c>
+      <c r="E43" s="60" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="59" t="s">
+        <v>893</v>
+      </c>
+      <c r="B44">
+        <v>10</v>
+      </c>
+      <c r="D44" s="60" t="s">
+        <v>894</v>
+      </c>
+      <c r="E44" s="60" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="59" t="str">
+        <f>"8638270106013016"</f>
+        <v>8638270106013016</v>
+      </c>
+      <c r="D45" s="60" t="s">
+        <v>896</v>
+      </c>
+      <c r="E45" s="60" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" s="59" t="str">
+        <f>"8638270106015816"</f>
+        <v>8638270106015816</v>
+      </c>
+      <c r="D46" s="60" t="s">
+        <v>897</v>
+      </c>
+      <c r="E46" s="60" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="59" t="str">
+        <f>"8638270130015816"</f>
+        <v>8638270130015816</v>
+      </c>
+      <c r="D47" s="60" t="s">
+        <v>898</v>
+      </c>
+      <c r="E47" s="60" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="59" t="s">
+        <v>900</v>
+      </c>
+      <c r="D48" s="60" t="s">
+        <v>901</v>
+      </c>
+      <c r="E48" s="60" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="59" t="str">
+        <f>"8638270158019816"</f>
+        <v>8638270158019816</v>
+      </c>
+      <c r="D49" s="60" t="s">
+        <v>903</v>
+      </c>
+      <c r="E49" s="60" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="59" t="str">
+        <f>"8638270158021416"</f>
+        <v>8638270158021416</v>
+      </c>
+      <c r="D50" s="60" t="s">
+        <v>905</v>
+      </c>
+      <c r="E50" s="60" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="59" t="s">
+        <v>906</v>
+      </c>
+      <c r="D51" s="60" t="s">
+        <v>907</v>
+      </c>
+      <c r="E51" s="60" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="59" t="s">
+        <v>909</v>
+      </c>
+      <c r="D52" s="60" t="s">
+        <v>910</v>
+      </c>
+      <c r="E52" s="60" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="60" t="s">
+        <v>912</v>
+      </c>
+      <c r="D53" s="60" t="s">
+        <v>913</v>
+      </c>
+      <c r="E53" s="60" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="D54" s="60" t="s">
+        <v>915</v>
+      </c>
+      <c r="E54" s="60" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" s="59" t="s">
+        <v>737</v>
+      </c>
+      <c r="D55" s="60" t="s">
+        <v>918</v>
+      </c>
+      <c r="E55" s="60" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" s="59" t="s">
+        <v>742</v>
+      </c>
+      <c r="D56" s="60" t="s">
+        <v>919</v>
+      </c>
+      <c r="E56" s="60" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" s="59" t="s">
+        <v>752</v>
+      </c>
+      <c r="D57" s="60" t="s">
+        <v>921</v>
+      </c>
+      <c r="E57" s="60" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" s="59" t="s">
+        <v>755</v>
+      </c>
+      <c r="D58" s="60" t="s">
+        <v>922</v>
+      </c>
+      <c r="E58" s="60" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" s="59" t="s">
+        <v>781</v>
+      </c>
+      <c r="D59" s="60" t="s">
+        <v>924</v>
+      </c>
+      <c r="E59" s="60" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="61" t="s">
+        <v>800</v>
+      </c>
+      <c r="D60" s="62" t="s">
+        <v>926</v>
+      </c>
+      <c r="E60" s="62" t="s">
+        <v>916</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B5D08BE-CF2A-4B4B-9E45-2A161796222A}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -12443,7 +13200,7 @@
   <dimension ref="B1:F1451"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -37547,12 +38304,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5851118F-8329-4B1D-935C-DDEF273C45F7}">
   <dimension ref="B1:J60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:J60"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -39348,7 +40105,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J2:J60">
-    <cfRule type="top10" dxfId="13" priority="1" rank="3"/>
+    <cfRule type="top10" dxfId="0" priority="1" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -39357,12 +40114,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA397BF4-48DB-4731-A191-0E8229D2E271}">
   <dimension ref="A1:J210"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/inventory_bom.xlsx
+++ b/inventory_bom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://muellerone-my.sharepoint.com/personal/massa_muellerwp_com/Documents/Documents/Cover Systems/Inventory managment/Sets calcs/Calc files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="259" documentId="8_{B3EE0665-797F-47D7-A473-964286153950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62804514-D985-4182-8636-E8959ABEEF29}"/>
+  <xr:revisionPtr revIDLastSave="260" documentId="8_{B3EE0665-797F-47D7-A473-964286153950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03B1124E-2D3E-40EB-A181-D89D3C5E66A5}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{51681456-E6B8-42DF-B381-24AEC35843D2}"/>
   </bookViews>
@@ -12498,7 +12498,7 @@
   <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+      <selection activeCell="B2" sqref="B2:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12553,9 +12553,6 @@
       <c r="A5" s="59" t="s">
         <v>580</v>
       </c>
-      <c r="B5">
-        <v>10</v>
-      </c>
       <c r="D5" s="60" t="s">
         <v>835</v>
       </c>
@@ -12589,9 +12586,6 @@
       <c r="A8" s="59" t="s">
         <v>608</v>
       </c>
-      <c r="B8">
-        <v>10</v>
-      </c>
       <c r="D8" s="60" t="s">
         <v>841</v>
       </c>
@@ -12647,9 +12641,6 @@
       <c r="A13" s="59" t="s">
         <v>655</v>
       </c>
-      <c r="B13">
-        <v>8</v>
-      </c>
       <c r="D13" s="60" t="s">
         <v>852</v>
       </c>
@@ -12737,9 +12728,6 @@
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="59" t="s">
         <v>682</v>
-      </c>
-      <c r="B21">
-        <v>10</v>
       </c>
       <c r="D21" s="60" t="s">
         <v>862</v>
@@ -12995,9 +12983,6 @@
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="59" t="s">
         <v>893</v>
-      </c>
-      <c r="B44">
-        <v>10</v>
       </c>
       <c r="D44" s="60" t="s">
         <v>894</v>

--- a/inventory_bom.xlsx
+++ b/inventory_bom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://muellerone-my.sharepoint.com/personal/massa_muellerwp_com/Documents/Documents/Cover Systems/Inventory managment/Sets calcs/Calc files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="260" documentId="8_{B3EE0665-797F-47D7-A473-964286153950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03B1124E-2D3E-40EB-A181-D89D3C5E66A5}"/>
+  <xr:revisionPtr revIDLastSave="262" documentId="8_{B3EE0665-797F-47D7-A473-964286153950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC589CA1-1393-4A61-BB37-141FB9EAE67A}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{51681456-E6B8-42DF-B381-24AEC35843D2}"/>
   </bookViews>
@@ -12498,7 +12498,7 @@
   <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B1048576"/>
+      <selection activeCell="B2" sqref="B2:B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12520,6 +12520,9 @@
       <c r="A2" s="59" t="s">
         <v>542</v>
       </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
       <c r="D2" s="60" t="s">
         <v>828</v>
       </c>
@@ -12531,6 +12534,9 @@
       <c r="A3" s="59" t="s">
         <v>564</v>
       </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
       <c r="D3" s="60" t="s">
         <v>831</v>
       </c>
@@ -12542,6 +12548,9 @@
       <c r="A4" s="59" t="s">
         <v>572</v>
       </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
       <c r="D4" s="60" t="s">
         <v>833</v>
       </c>
@@ -12553,6 +12562,9 @@
       <c r="A5" s="59" t="s">
         <v>580</v>
       </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
       <c r="D5" s="60" t="s">
         <v>835</v>
       </c>
@@ -12564,6 +12576,9 @@
       <c r="A6" s="59" t="s">
         <v>596</v>
       </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
       <c r="D6" s="60" t="s">
         <v>837</v>
       </c>
@@ -12575,6 +12590,9 @@
       <c r="A7" s="59" t="s">
         <v>598</v>
       </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
       <c r="D7" s="60" t="s">
         <v>839</v>
       </c>
@@ -12586,6 +12604,9 @@
       <c r="A8" s="59" t="s">
         <v>608</v>
       </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
       <c r="D8" s="60" t="s">
         <v>841</v>
       </c>
@@ -12597,6 +12618,9 @@
       <c r="A9" s="59" t="s">
         <v>615</v>
       </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
       <c r="D9" s="60" t="s">
         <v>843</v>
       </c>
@@ -12608,6 +12632,9 @@
       <c r="A10" s="59" t="s">
         <v>623</v>
       </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
       <c r="D10" s="60" t="s">
         <v>846</v>
       </c>
@@ -12619,6 +12646,9 @@
       <c r="A11" s="59" t="s">
         <v>639</v>
       </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
       <c r="D11" s="60" t="s">
         <v>848</v>
       </c>
@@ -12630,6 +12660,9 @@
       <c r="A12" s="59" t="s">
         <v>647</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="D12" s="60" t="s">
         <v>850</v>
       </c>
@@ -12641,6 +12674,9 @@
       <c r="A13" s="59" t="s">
         <v>655</v>
       </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
       <c r="D13" s="60" t="s">
         <v>852</v>
       </c>
@@ -12652,6 +12688,9 @@
       <c r="A14" s="59" t="s">
         <v>667</v>
       </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
       <c r="D14" s="60" t="s">
         <v>854</v>
       </c>
@@ -12663,6 +12702,9 @@
       <c r="A15" s="59" t="s">
         <v>670</v>
       </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
       <c r="D15" s="60" t="s">
         <v>856</v>
       </c>
@@ -12674,6 +12716,9 @@
       <c r="A16" s="59" t="s">
         <v>672</v>
       </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
       <c r="D16" s="60" t="s">
         <v>857</v>
       </c>
@@ -12685,6 +12730,9 @@
       <c r="A17" s="59" t="s">
         <v>674</v>
       </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
       <c r="D17" s="60" t="s">
         <v>858</v>
       </c>
@@ -12696,6 +12744,9 @@
       <c r="A18" s="59" t="s">
         <v>676</v>
       </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
       <c r="D18" s="60" t="s">
         <v>859</v>
       </c>
@@ -12707,6 +12758,9 @@
       <c r="A19" s="59" t="s">
         <v>678</v>
       </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
       <c r="D19" s="60" t="s">
         <v>860</v>
       </c>
@@ -12718,6 +12772,9 @@
       <c r="A20" s="59" t="s">
         <v>680</v>
       </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
       <c r="D20" s="60" t="s">
         <v>861</v>
       </c>
@@ -12729,6 +12786,9 @@
       <c r="A21" s="59" t="s">
         <v>682</v>
       </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
       <c r="D21" s="60" t="s">
         <v>862</v>
       </c>
@@ -12740,6 +12800,9 @@
       <c r="A22" s="59" t="s">
         <v>684</v>
       </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
       <c r="D22" s="60" t="s">
         <v>863</v>
       </c>
@@ -12751,6 +12814,9 @@
       <c r="A23" s="59" t="s">
         <v>686</v>
       </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
       <c r="D23" s="60" t="s">
         <v>864</v>
       </c>
@@ -12762,6 +12828,9 @@
       <c r="A24" s="59" t="s">
         <v>688</v>
       </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
       <c r="D24" s="60" t="s">
         <v>865</v>
       </c>
@@ -12773,6 +12842,9 @@
       <c r="A25" s="59" t="s">
         <v>690</v>
       </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
       <c r="D25" s="60" t="s">
         <v>866</v>
       </c>
@@ -12784,6 +12856,9 @@
       <c r="A26" s="59" t="s">
         <v>692</v>
       </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
       <c r="D26" s="60" t="s">
         <v>867</v>
       </c>
@@ -12795,6 +12870,9 @@
       <c r="A27" s="59" t="s">
         <v>694</v>
       </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
       <c r="D27" s="60" t="s">
         <v>868</v>
       </c>
@@ -12806,6 +12884,9 @@
       <c r="A28" s="59" t="s">
         <v>696</v>
       </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
       <c r="D28" s="60" t="s">
         <v>870</v>
       </c>
@@ -12817,6 +12898,9 @@
       <c r="A29" s="59" t="s">
         <v>698</v>
       </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
       <c r="D29" s="60" t="s">
         <v>871</v>
       </c>
@@ -12828,6 +12912,9 @@
       <c r="A30" s="59" t="s">
         <v>700</v>
       </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
       <c r="D30" s="60" t="s">
         <v>872</v>
       </c>
@@ -12839,6 +12926,9 @@
       <c r="A31" s="59" t="s">
         <v>702</v>
       </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
       <c r="D31" s="60" t="s">
         <v>873</v>
       </c>
@@ -12850,6 +12940,9 @@
       <c r="A32" s="59" t="s">
         <v>703</v>
       </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
       <c r="D32" s="60" t="s">
         <v>874</v>
       </c>
@@ -12861,6 +12954,9 @@
       <c r="A33" s="59" t="s">
         <v>705</v>
       </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
       <c r="D33" s="60" t="s">
         <v>875</v>
       </c>
@@ -12872,6 +12968,9 @@
       <c r="A34" s="59" t="s">
         <v>707</v>
       </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
       <c r="D34" s="60" t="s">
         <v>876</v>
       </c>
@@ -12883,6 +12982,9 @@
       <c r="A35" s="59" t="s">
         <v>709</v>
       </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
       <c r="D35" s="60" t="s">
         <v>877</v>
       </c>
@@ -12894,6 +12996,9 @@
       <c r="A36" s="59" t="s">
         <v>711</v>
       </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
       <c r="D36" s="60" t="s">
         <v>878</v>
       </c>
@@ -12905,6 +13010,9 @@
       <c r="A37" s="59" t="s">
         <v>713</v>
       </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
       <c r="D37" s="60" t="s">
         <v>879</v>
       </c>
@@ -12916,6 +13024,9 @@
       <c r="A38" s="59" t="s">
         <v>715</v>
       </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
       <c r="D38" s="60" t="s">
         <v>880</v>
       </c>
@@ -12927,6 +13038,9 @@
       <c r="A39" s="59" t="s">
         <v>717</v>
       </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
       <c r="D39" s="60" t="s">
         <v>881</v>
       </c>
@@ -12938,6 +13052,9 @@
       <c r="A40" s="59" t="s">
         <v>884</v>
       </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
       <c r="D40" s="60" t="s">
         <v>885</v>
       </c>
@@ -12948,6 +13065,9 @@
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="59" t="s">
         <v>887</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
       </c>
       <c r="D41" s="60" t="s">
         <v>888</v>
@@ -12961,6 +13081,9 @@
         <f>"8638270080010616"</f>
         <v>8638270080010616</v>
       </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
       <c r="D42" s="60" t="s">
         <v>890</v>
       </c>
@@ -12973,6 +13096,9 @@
         <f>"8638270104013016"</f>
         <v>8638270104013016</v>
       </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
       <c r="D43" s="60" t="s">
         <v>891</v>
       </c>
@@ -12983,6 +13109,9 @@
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="59" t="s">
         <v>893</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
       </c>
       <c r="D44" s="60" t="s">
         <v>894</v>
@@ -12996,6 +13125,9 @@
         <f>"8638270106013016"</f>
         <v>8638270106013016</v>
       </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
       <c r="D45" s="60" t="s">
         <v>896</v>
       </c>
@@ -13008,6 +13140,9 @@
         <f>"8638270106015816"</f>
         <v>8638270106015816</v>
       </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
       <c r="D46" s="60" t="s">
         <v>897</v>
       </c>
@@ -13020,6 +13155,9 @@
         <f>"8638270130015816"</f>
         <v>8638270130015816</v>
       </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
       <c r="D47" s="60" t="s">
         <v>898</v>
       </c>
@@ -13030,6 +13168,9 @@
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="59" t="s">
         <v>900</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
       </c>
       <c r="D48" s="60" t="s">
         <v>901</v>
@@ -13043,6 +13184,9 @@
         <f>"8638270158019816"</f>
         <v>8638270158019816</v>
       </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
       <c r="D49" s="60" t="s">
         <v>903</v>
       </c>
@@ -13055,6 +13199,9 @@
         <f>"8638270158021416"</f>
         <v>8638270158021416</v>
       </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
       <c r="D50" s="60" t="s">
         <v>905</v>
       </c>
@@ -13066,6 +13213,9 @@
       <c r="A51" s="59" t="s">
         <v>906</v>
       </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
       <c r="D51" s="60" t="s">
         <v>907</v>
       </c>
@@ -13077,6 +13227,9 @@
       <c r="A52" s="59" t="s">
         <v>909</v>
       </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
       <c r="D52" s="60" t="s">
         <v>910</v>
       </c>
@@ -13088,6 +13241,9 @@
       <c r="A53" s="60" t="s">
         <v>912</v>
       </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
       <c r="D53" s="60" t="s">
         <v>913</v>
       </c>
@@ -13099,6 +13255,9 @@
       <c r="A54" s="59" t="s">
         <v>722</v>
       </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
       <c r="D54" s="60" t="s">
         <v>915</v>
       </c>
@@ -13110,6 +13269,9 @@
       <c r="A55" s="59" t="s">
         <v>737</v>
       </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
       <c r="D55" s="60" t="s">
         <v>918</v>
       </c>
@@ -13121,6 +13283,9 @@
       <c r="A56" s="59" t="s">
         <v>742</v>
       </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
       <c r="D56" s="60" t="s">
         <v>919</v>
       </c>
@@ -13132,6 +13297,9 @@
       <c r="A57" s="59" t="s">
         <v>752</v>
       </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
       <c r="D57" s="60" t="s">
         <v>921</v>
       </c>
@@ -13143,6 +13311,9 @@
       <c r="A58" s="59" t="s">
         <v>755</v>
       </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
       <c r="D58" s="60" t="s">
         <v>922</v>
       </c>
@@ -13154,6 +13325,9 @@
       <c r="A59" s="59" t="s">
         <v>781</v>
       </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
       <c r="D59" s="60" t="s">
         <v>924</v>
       </c>
@@ -13164,6 +13338,9 @@
     <row r="60" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="61" t="s">
         <v>800</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
       </c>
       <c r="D60" s="62" t="s">
         <v>926</v>
